--- a/src/test/resources/urunListesi.xlsx
+++ b/src/test/resources/urunListesi.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetbulutluoz/Desktop/My Desktop/course/projeler/WiseVideoDersleri_Cucumber/src/test/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetbulutluoz/Desktop/My Desktop/course/projeler/Team153_Cucumber/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CA18986-6CD0-7C4C-A728-1428DD2C12FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919C41A8-CD48-7F4D-9D67-72BCEB141A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1680" yWindow="2700" windowWidth="13140" windowHeight="17820" xr2:uid="{22DF3046-C972-F748-85B5-9CE5F61C6D5F}"/>
+    <workbookView xWindow="15520" yWindow="2720" windowWidth="13140" windowHeight="17820" xr2:uid="{22DF3046-C972-F748-85B5-9CE5F61C6D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -75,7 +75,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -441,150 +440,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F45082-77CB-8547-A6D1-3DC7353AE3BC}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.5"/>
-    <col min="2" max="2" customWidth="true" width="29.6640625"/>
+    <col min="1" max="1" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s" s="0">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="0">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s" s="0">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="0">
+      <c r="B2">
         <v>3</v>
       </c>
-      <c r="C2" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="D2" t="n" s="0">
-        <v>4.0</v>
-      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s" s="0">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="0">
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" t="n" s="0">
-        <v>10.0</v>
-      </c>
-      <c r="D3" t="n" s="0">
-        <v>10.0</v>
-      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s" s="0">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="0">
+      <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D4" t="n" s="0">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s" s="0">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="0">
+      <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D5" t="n" s="0">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s" s="0">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="0">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="D6" t="n" s="0">
-        <v>3.0</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s" s="0">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="0">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="n" s="0">
-        <v>3.0</v>
-      </c>
-      <c r="D7" t="n" s="0">
-        <v>3.0</v>
-      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s" s="0">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="0">
+      <c r="B8">
         <v>0</v>
       </c>
-      <c r="C8" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D8" t="n" s="0">
-        <v>0.0</v>
-      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s" s="0">
+      <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="0">
+      <c r="B9">
         <v>1</v>
       </c>
-      <c r="C9" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="D9" t="n" s="0">
-        <v>4.0</v>
-      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s" s="0">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="0">
+      <c r="B10">
         <v>0</v>
-      </c>
-      <c r="C10" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="D10" t="n" s="0">
-        <v>0.0</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/urunListesi.xlsx
+++ b/src/test/resources/urunListesi.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahmetbulutluoz/Desktop/My Desktop/course/projeler/Team153_Cucumber/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919C41A8-CD48-7F4D-9D67-72BCEB141A04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E0FE51E-AEB4-314F-9A5D-0441DB3622A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15520" yWindow="2720" windowWidth="13140" windowHeight="17820" xr2:uid="{22DF3046-C972-F748-85B5-9CE5F61C6D5F}"/>
+    <workbookView xWindow="5660" yWindow="2720" windowWidth="23000" windowHeight="17820" xr2:uid="{22DF3046-C972-F748-85B5-9CE5F61C6D5F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="12">
   <si>
     <t>urun ismi</t>
   </si>
@@ -69,12 +69,16 @@
   </si>
   <si>
     <t>furniture</t>
+  </si>
+  <si>
+    <t>22/01/2025</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -440,95 +444,193 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90F45082-77CB-8547-A6D1-3DC7353AE3BC}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.5" customWidth="1"/>
-    <col min="2" max="2" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="22.5"/>
+    <col min="2" max="2" customWidth="true" width="29.6640625"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="3.1640625"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="3.1640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s" s="0">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="0">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D2" s="0">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="0">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="D3" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F3" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="B4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F4" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F5" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="0">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="D6" s="0">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F6" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s" s="0">
         <v>7</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="0">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="D7" s="0">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F7" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="B8" s="0">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F8" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="0">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="D9" s="0">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="0">
         <v>0</v>
       </c>
     </row>
